--- a/tests/files/placeholder_test.xlsx
+++ b/tests/files/placeholder_test.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t xml:space="preserve">Phid</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">Serial Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part Number</t>
   </si>
   <si>
     <t xml:space="preserve">Id device Supplier</t>
@@ -79,6 +82,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -138,8 +142,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -160,104 +168,110 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>12345678</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="D3" s="1" t="n">
+        <v>12345679</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>12345679</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="D4" s="1" t="n">
+        <v>12345680</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>12345680</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>12</v>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/tests/files/placeholder_test.xlsx
+++ b/tests/files/placeholder_test.xlsx
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
-    <t xml:space="preserve">Phid</t>
-  </si>
-  <si>
     <t xml:space="preserve">Model</t>
   </si>
   <si>
@@ -40,15 +37,15 @@
     <t xml:space="preserve">Id device Supplier</t>
   </si>
   <si>
+    <t xml:space="preserve">Id device Internal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pallet</t>
   </si>
   <si>
     <t xml:space="preserve">Info</t>
   </si>
   <si>
-    <t xml:space="preserve">a123</t>
-  </si>
-  <si>
     <t xml:space="preserve">Vaio</t>
   </si>
   <si>
@@ -58,16 +55,19 @@
     <t xml:space="preserve">TTT</t>
   </si>
   <si>
+    <t xml:space="preserve">AA</t>
+  </si>
+  <si>
     <t xml:space="preserve">24A</t>
   </si>
   <si>
     <t xml:space="preserve">Good conditions</t>
   </si>
   <si>
-    <t xml:space="preserve">a124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a125</t>
+    <t xml:space="preserve">BB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC</t>
   </si>
 </sst>
 </file>
@@ -77,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -98,6 +98,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +152,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -171,106 +176,103 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>12345678</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>12345679</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="0" t="n">
+        <v>12345680</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>12345679</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="F4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>12345680</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="0" t="s">
         <v>13</v>
       </c>
     </row>
